--- a/src/attributions/attributions_saliency_traj_370.xlsx
+++ b/src/attributions/attributions_saliency_traj_370.xlsx
@@ -1573,1709 +1573,1709 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.001595669775269926</v>
+        <v>0.09465231001377106</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004425797611474991</v>
+        <v>0.5895640850067139</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02417101338505745</v>
+        <v>0.4446361064910889</v>
       </c>
       <c r="D3" t="n">
-        <v>0.005769026465713978</v>
+        <v>0.41355100274086</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03756982833147049</v>
+        <v>0.5795965790748596</v>
       </c>
       <c r="F3" t="n">
-        <v>0.007822171784937382</v>
+        <v>0.2994103729724884</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00239139748737216</v>
+        <v>0.07005201280117035</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002866415306925774</v>
+        <v>0.1397377997636795</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01102145574986935</v>
+        <v>0.4019360244274139</v>
       </c>
       <c r="J3" t="n">
-        <v>0.004750991240143776</v>
+        <v>0.4331850409507751</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001721599488519132</v>
+        <v>0.351203590631485</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02944095060229301</v>
+        <v>0.1777405291795731</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005594562739133835</v>
+        <v>0.1894581317901611</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02318212017416954</v>
+        <v>0.422868937253952</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001315493602305651</v>
+        <v>0.1459148526191711</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002607840579003096</v>
+        <v>0.2115896791219711</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.004669632762670517</v>
+        <v>0.06909185647964478</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01308343093842268</v>
+        <v>0.56094890832901</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001764445565640926</v>
+        <v>0.003060423769056797</v>
       </c>
       <c r="T3" t="n">
-        <v>0.008894884958863258</v>
+        <v>0.1256668418645859</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003184650558978319</v>
+        <v>0.2419672012329102</v>
       </c>
       <c r="V3" t="n">
-        <v>0.004655912518501282</v>
+        <v>0.1463738977909088</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001733053475618362</v>
+        <v>0.1992208808660507</v>
       </c>
       <c r="X3" t="n">
-        <v>0.003929578699171543</v>
+        <v>0.1276547610759735</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002205769764259458</v>
+        <v>0.05920004844665527</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.004824850242584944</v>
+        <v>0.01221916452050209</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0006919954903423786</v>
+        <v>0.1336091607809067</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.002926396438851953</v>
+        <v>0.1638257801532745</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0006891412194818258</v>
+        <v>0.1761161386966705</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.001357585657387972</v>
+        <v>0.06407445669174194</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.006426916923373938</v>
+        <v>0.2133690863847733</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.002236771630123258</v>
+        <v>0.03563040867447853</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.00445229560136795</v>
+        <v>0.01902914792299271</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.002485678298398852</v>
+        <v>0.06223407387733459</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.009667892009019852</v>
+        <v>0.1404264271259308</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.009911160916090012</v>
+        <v>0.04577022790908813</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.002738422714173794</v>
+        <v>0.1478371620178223</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.003832828719168901</v>
+        <v>0.1797613203525543</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.004776178859174252</v>
+        <v>0.1220137774944305</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.003602024400606751</v>
+        <v>0.1411949396133423</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.002565128728747368</v>
+        <v>0.1079305186867714</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.006264824885874987</v>
+        <v>0.1122176349163055</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.0001871126005426049</v>
+        <v>0.03254174441099167</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.005224647931754589</v>
+        <v>0.0818360447883606</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0006217726622708142</v>
+        <v>0.08622694760560989</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.002210154430940747</v>
+        <v>0.1895675659179688</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.001375580439344049</v>
+        <v>0.005902543663978577</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.0135572636500001</v>
+        <v>0.4018878638744354</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.004438511095941067</v>
+        <v>0.02865287102758884</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.007224549073725939</v>
+        <v>0.7330848574638367</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.009767957031726837</v>
+        <v>0.152384489774704</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.005157703533768654</v>
+        <v>0.03461382165551186</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.001107249292545021</v>
+        <v>0.07114268094301224</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.003943291492760181</v>
+        <v>0.07742112129926682</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0005531120114028454</v>
+        <v>0.2653875350952148</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.0002065075386781245</v>
+        <v>0.3288638889789581</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.007348817307502031</v>
+        <v>0.1567158252000809</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.001712707104161382</v>
+        <v>0.2155245393514633</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.01312844082713127</v>
+        <v>0.1761293113231659</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.0007410018006339669</v>
+        <v>0.5424377918243408</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.003388418350368738</v>
+        <v>0.1414821892976761</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.001624657539650798</v>
+        <v>0.2511968612670898</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.001393528305925429</v>
+        <v>0.5113401412963867</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.001396387466229498</v>
+        <v>0.217219278216362</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.002104210201650858</v>
+        <v>0.09553910791873932</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.01221031788736582</v>
+        <v>0.3286504149436951</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.002188635990023613</v>
+        <v>0.006499270908534527</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.005528653040528297</v>
+        <v>0.1775403767824173</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.0007578521035611629</v>
+        <v>0.01130180992186069</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.00279799522832036</v>
+        <v>0.04751444607973099</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.002454751404002309</v>
+        <v>0.1070387959480286</v>
       </c>
       <c r="BT3" t="n">
-        <v>5.639149458147585e-05</v>
+        <v>0.1226794794201851</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.003793265903368592</v>
+        <v>0.07003746181726456</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.0008687520166859031</v>
+        <v>0.08581474423408508</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.004288019146770239</v>
+        <v>0.09512209892272949</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.00020173768280074</v>
+        <v>0.1153947114944458</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.01718310080468655</v>
+        <v>0.5544793605804443</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.004962214268743992</v>
+        <v>0.01796622388064861</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.002880512038245797</v>
+        <v>0.02866697311401367</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.001385858049616218</v>
+        <v>0.03850528225302696</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.003820808138698339</v>
+        <v>0.2562045454978943</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.001925644231960177</v>
+        <v>0.03363421931862831</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.003962581511586905</v>
+        <v>0.1225616335868835</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.005101616028696299</v>
+        <v>0.121794156730175</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0001823237398639321</v>
+        <v>0.04636762291193008</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.006840627174824476</v>
+        <v>0.1216781809926033</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.00286401784978807</v>
+        <v>0.06400048732757568</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.0004055764293298125</v>
+        <v>0.02887418121099472</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.001861311728134751</v>
+        <v>0.1077548936009407</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.0007420105393975973</v>
+        <v>0.05409250408411026</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.004272648598998785</v>
+        <v>0.02451321296393871</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.01246599853038788</v>
+        <v>0.09548443555831909</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.004383428022265434</v>
+        <v>0.091375432908535</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.002723651938140392</v>
+        <v>0.1648501604795456</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.005381780676543713</v>
+        <v>0.4479346871376038</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.001691857003606856</v>
+        <v>0.03349170088768005</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.003437887411564589</v>
+        <v>0.1115965619683266</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.001427283743396401</v>
+        <v>0.04074453562498093</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.006286725401878357</v>
+        <v>0.05887983739376068</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.002130108419805765</v>
+        <v>0.08255595713853836</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.003520129946991801</v>
+        <v>0.1403091102838516</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.006463307421654463</v>
+        <v>0.06972121447324753</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.0004952640156261623</v>
+        <v>0.0751558393239975</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.008687692694365978</v>
+        <v>0.005643330514431</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.003636413253843784</v>
+        <v>0.09391439706087112</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.0004478007322177291</v>
+        <v>0.02703811973333359</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.001072616898454726</v>
+        <v>0.07233750820159912</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.002047730842605233</v>
+        <v>0.05747335031628609</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.0009470692602917552</v>
+        <v>0.07767853885889053</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.01015623472630978</v>
+        <v>0.03702561557292938</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.0130067840218544</v>
+        <v>0.2253798246383667</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.000812767306342721</v>
+        <v>0.6295032501220703</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.003053087741136551</v>
+        <v>0.2564705908298492</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.001446246169507504</v>
+        <v>0.06672008335590363</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.002547350712120533</v>
+        <v>0.2432498335838318</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.003515393938869238</v>
+        <v>0.06769254803657532</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.004312659613788128</v>
+        <v>0.08249648660421371</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0001413583813700825</v>
+        <v>0.2219375371932983</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.001910683466121554</v>
+        <v>0.2257036715745926</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.004404409322887659</v>
+        <v>0.1464223116636276</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.0004148246953263879</v>
+        <v>0.1823973208665848</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.005306621547788382</v>
+        <v>0.2179741561412811</v>
       </c>
       <c r="DS3" t="n">
-        <v>2.776645123958588e-05</v>
+        <v>0.08177810907363892</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.000771236838772893</v>
+        <v>0.07915285229682922</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.005003788508474827</v>
+        <v>0.05068951472640038</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.001584848039783537</v>
+        <v>0.1208359375596046</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.0001660167472437024</v>
+        <v>0.0530133843421936</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.002408758969977498</v>
+        <v>0.01931123435497284</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.0006280951201915741</v>
+        <v>0.1084864735603333</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.002581366803497076</v>
+        <v>0.05120063200592995</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.0008450214518234134</v>
+        <v>0.03622050210833549</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.0008693301351740956</v>
+        <v>0.1559616774320602</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.0002053865464404225</v>
+        <v>0.08619816601276398</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.0008772466098889709</v>
+        <v>0.0406934916973114</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.001863220240920782</v>
+        <v>0.04673755913972855</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.00161642290186137</v>
+        <v>0.1082504242658615</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.001425305614247918</v>
+        <v>0.03528613597154617</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.007297981530427933</v>
+        <v>0.193746879696846</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.003120218636468053</v>
+        <v>0.09048887342214584</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.008248941041529179</v>
+        <v>0.04832160100340843</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.01157035678625107</v>
+        <v>0.05995587259531021</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.0001728939823806286</v>
+        <v>0.04749909788370132</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.001816343516111374</v>
+        <v>0.08783505856990814</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.001210237736813724</v>
+        <v>0.09608455747365952</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.002653000177815557</v>
+        <v>0.2368815094232559</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.005732706282287836</v>
+        <v>0.01655225455760956</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.001523090293630958</v>
+        <v>0.03671763092279434</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.0002018713857978582</v>
+        <v>0.177173063158989</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0004638639802578837</v>
+        <v>0.06351069360971451</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.002090880181640387</v>
+        <v>0.02397016994655132</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.0018897500121966</v>
+        <v>0.02757894434034824</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.003316892543807626</v>
+        <v>0.0607387088239193</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.002893321216106415</v>
+        <v>0.181292936205864</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.002579308580607176</v>
+        <v>0.1062916368246078</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.003078691428527236</v>
+        <v>0.08077048510313034</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.006133213639259338</v>
+        <v>0.08996167778968811</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.0007310084765776992</v>
+        <v>0.02469983324408531</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.006410669069737196</v>
+        <v>0.03004713356494904</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.001774225034750998</v>
+        <v>0.006068406626582146</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.0001870814012363553</v>
+        <v>0.0002063193824142218</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.001496466808021069</v>
+        <v>0.07770129293203354</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.002234928077086806</v>
+        <v>0.061378363519907</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.002159389201551676</v>
+        <v>0.06767378002405167</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.0006206530379131436</v>
+        <v>0.05037198960781097</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.001647569122724235</v>
+        <v>0.03658942878246307</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.005077820736914873</v>
+        <v>0.01125287637114525</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.007615989074110985</v>
+        <v>0.07779943197965622</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.000710291089490056</v>
+        <v>0.007534250617027283</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.0004979442455805838</v>
+        <v>0.07966291159391403</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.00436310051009059</v>
+        <v>0.03181303292512894</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.004641900770366192</v>
+        <v>0.07989194989204407</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.00140622106846422</v>
+        <v>0.113136850297451</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.004647864494472742</v>
+        <v>0.3126772344112396</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.002735906280577183</v>
+        <v>0.2144304513931274</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.003121874760836363</v>
+        <v>0.1063176244497299</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.008227812126278877</v>
+        <v>0.3727657794952393</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.00389045337215066</v>
+        <v>0.2471894770860672</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.0006349800387397408</v>
+        <v>0.08156441152095795</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.002469134517014027</v>
+        <v>0.08920472115278244</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.001953613944351673</v>
+        <v>0.01746765896677971</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.001956615597009659</v>
+        <v>0.07782982289791107</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.003299577394500375</v>
+        <v>0.2546622455120087</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.001569589250721037</v>
+        <v>0.05901797488331795</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0001887645339593291</v>
+        <v>0.06159806996583939</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.007143214344978333</v>
+        <v>0.03661824762821198</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.008010579273104668</v>
+        <v>0.2204177528619766</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.00125542376190424</v>
+        <v>0.08332078903913498</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.0003603344084694982</v>
+        <v>0.1075141653418541</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.0001637546520214528</v>
+        <v>0.02482767589390278</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.03477052226662636</v>
+        <v>0.009391850791871548</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03059561736881733</v>
+        <v>0.1047669723629951</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1725631058216095</v>
+        <v>0.01098421588540077</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0679871067404747</v>
+        <v>0.05799661204218864</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08736889064311981</v>
+        <v>0.0470319464802742</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005365168675780296</v>
+        <v>0.02062130719423294</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01309816632419825</v>
+        <v>0.01969803869724274</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03968599811196327</v>
+        <v>0.01879615522921085</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09290414303541183</v>
+        <v>0.001957504544407129</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01155694760382175</v>
+        <v>0.006231416016817093</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001940758898854256</v>
+        <v>0.06716711819171906</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1778696179389954</v>
+        <v>0.00509859062731266</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03558145463466644</v>
+        <v>0.04674411192536354</v>
       </c>
       <c r="N4" t="n">
-        <v>0.04990182444453239</v>
+        <v>0.05268656462430954</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002550922334194183</v>
+        <v>0.03064524568617344</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02776844054460526</v>
+        <v>0.02553233876824379</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.07766213268041611</v>
+        <v>0.0003487925278022885</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1154085993766785</v>
+        <v>0.005903048440814018</v>
       </c>
       <c r="S4" t="n">
-        <v>0.004587199073284864</v>
+        <v>0.0005873235641047359</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06326612830162048</v>
+        <v>0.01761316694319248</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004177904222160578</v>
+        <v>0.0001263334415853024</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0182720422744751</v>
+        <v>0.01538109593093395</v>
       </c>
       <c r="W4" t="n">
-        <v>0.01966868154704571</v>
+        <v>0.0121462419629097</v>
       </c>
       <c r="X4" t="n">
-        <v>0.003763274289667606</v>
+        <v>0.0113940117880702</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.009106872603297234</v>
+        <v>0.01260539796203375</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.03210935741662979</v>
+        <v>0.01304450910538435</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02217169851064682</v>
+        <v>0.009683120995759964</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.001807914115488529</v>
+        <v>0.0007586153224110603</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.01028815656900406</v>
+        <v>0.01278802659362555</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.01874553039669991</v>
+        <v>0.001699822372756898</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02105468511581421</v>
+        <v>0.005356344860047102</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.001285971142351627</v>
+        <v>0.005537143908441067</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.04993400722742081</v>
+        <v>0.002612159354612231</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.005437213927507401</v>
+        <v>0.009652195498347282</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.04129517823457718</v>
+        <v>0.007380323018878698</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.05309978500008583</v>
+        <v>0.00473037688061595</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.01497618947178125</v>
+        <v>0.005680104717612267</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.02283161878585815</v>
+        <v>0.01839785650372505</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0150999641045928</v>
+        <v>0.001904201693832874</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.01520594954490662</v>
+        <v>0.00479606632143259</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0009083072654902935</v>
+        <v>0.007682162802666426</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.02583402954041958</v>
+        <v>0.01478835660964251</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.001329417573288083</v>
+        <v>0.005254587158560753</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.01232776325196028</v>
+        <v>0.007317908573895693</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.001362990238703787</v>
+        <v>0.007150439079850912</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.01047161873430014</v>
+        <v>0.01163229532539845</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.01817744225263596</v>
+        <v>0.0821024477481842</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.09661978483200073</v>
+        <v>0.006962832529097795</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.04099105298519135</v>
+        <v>0.01260973047465086</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.00503072701394558</v>
+        <v>0.006654241587966681</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.04999364912509918</v>
+        <v>0.003112689359113574</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.002911746501922607</v>
+        <v>0.003470099531114101</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.01478684693574905</v>
+        <v>0.004877611994743347</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.02040741592645645</v>
+        <v>0.004003777168691158</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.001187020912766457</v>
+        <v>0.003938406705856323</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.006169726606458426</v>
+        <v>0.01063379924744368</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.05152391642332077</v>
+        <v>0.007614008150994778</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.004622037522494793</v>
+        <v>0.01335657574236393</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.041588194668293</v>
+        <v>0.03853438794612885</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.0234850998967886</v>
+        <v>0.005966273602098227</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.01681308262050152</v>
+        <v>0.02146863006055355</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.008513006381690502</v>
+        <v>0.004744875710457563</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.0227906871587038</v>
+        <v>0.005386609584093094</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.003956031519919634</v>
+        <v>0.01884213835000992</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.00115952268242836</v>
+        <v>0.01926431432366371</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.03021969273686409</v>
+        <v>0.002968068234622478</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.006172018591314554</v>
+        <v>0.009457770735025406</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.009479157626628876</v>
+        <v>0.006696125492453575</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.006479341071099043</v>
+        <v>0.01019963435828686</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.02491334825754166</v>
+        <v>0.0001836540177464485</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.05276143923401833</v>
+        <v>0.004273560829460621</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.02280992083251476</v>
+        <v>0.005192006938159466</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.01732027530670166</v>
+        <v>0.01015041396021843</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.006083863321691751</v>
+        <v>0.04590649530291557</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.05821303278207779</v>
+        <v>0.01180646847933531</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.01674707420170307</v>
+        <v>0.007003114558756351</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.01725450903177261</v>
+        <v>0.009030386805534363</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.00835109781473875</v>
+        <v>0.02104857377707958</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.01584155857563019</v>
+        <v>0.003305663354694843</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.006795566529035568</v>
+        <v>0.003825972089543939</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.03441128507256508</v>
+        <v>0.008045092225074768</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.006461516488343477</v>
+        <v>0.006553266663104296</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.009439886547625065</v>
+        <v>0.01531651336699724</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.03204226121306419</v>
+        <v>0.003877675626426935</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.01208015717566013</v>
+        <v>0.006461578886955976</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.01937487721443176</v>
+        <v>0.003850755514577031</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.01773569360375404</v>
+        <v>0.008437155745923519</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.001388579024933279</v>
+        <v>0.003579022828489542</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.01333657559007406</v>
+        <v>0.002780783455818892</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.01219527050852776</v>
+        <v>0.004996372852474451</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.02667567133903503</v>
+        <v>0.01045349519699812</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.04636353999376297</v>
+        <v>0.002097843680530787</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.02155508473515511</v>
+        <v>0.006661099847406149</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.01314436364918947</v>
+        <v>0.01235373131930828</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0007988535799086094</v>
+        <v>0.01173209398984909</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.01712245866656303</v>
+        <v>0.009612571448087692</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.006000225432217121</v>
+        <v>0.01419243402779102</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.02308601886034012</v>
+        <v>0.02002628333866596</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.03806372731924057</v>
+        <v>0.0007324555772356689</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.004950215108692646</v>
+        <v>0.006906267255544662</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.006903447210788727</v>
+        <v>0.01092924829572439</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.03020959906280041</v>
+        <v>0.004049086477607489</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.01204752642661333</v>
+        <v>0.0117964968085289</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.0295117013156414</v>
+        <v>0.0005452820332720876</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.01474068127572536</v>
+        <v>0.01136114168912172</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.001888406462967396</v>
+        <v>0.002468011807650328</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.01476267166435719</v>
+        <v>0.002484433818608522</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.0147993192076683</v>
+        <v>0.001405484043061733</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.01846769824624062</v>
+        <v>0.006445072591304779</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.03926518559455872</v>
+        <v>0.01088110357522964</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.0008075074292719364</v>
+        <v>0.004378273151814938</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.03057161718606949</v>
+        <v>0.01909945532679558</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.006430977024137974</v>
+        <v>0.01051040645688772</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.02806796506047249</v>
+        <v>0.007278927601873875</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.005983748473227024</v>
+        <v>0.01116767339408398</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.006740379147231579</v>
+        <v>0.009856667369604111</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.01046278141438961</v>
+        <v>0.00927361287176609</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.01252211537212133</v>
+        <v>0.01473863795399666</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.006758913863450289</v>
+        <v>0.006690568756312132</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.0231496524065733</v>
+        <v>0.0001401549961883575</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.01787430420517921</v>
+        <v>0.005992524325847626</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.002986425068229437</v>
+        <v>0.00422200933098793</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.003844904014840722</v>
+        <v>0.002440796932205558</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.008962484076619148</v>
+        <v>0.003688293043524027</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.01110537257045507</v>
+        <v>0.006462622433900833</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.03332821279764175</v>
+        <v>0.004429025575518608</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.005997181870043278</v>
+        <v>0.005922558717429638</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.002750374376773834</v>
+        <v>0.005232014693319798</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.009674116969108582</v>
+        <v>0.01632916182279587</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.004978573881089687</v>
+        <v>0.002558043226599693</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.01539437472820282</v>
+        <v>0.0164536964148283</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.01617109403014183</v>
+        <v>0.003657884197309613</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.00506624998524785</v>
+        <v>0.002791347447782755</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.02617656625807285</v>
+        <v>0.008685596287250519</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.006673898547887802</v>
+        <v>0.0003570591798052192</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.01108765695244074</v>
+        <v>5.865516141057014e-05</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.001334309577941895</v>
+        <v>0.007154266349971294</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.02815269120037556</v>
+        <v>0.0011717330198735</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.004126262851059437</v>
+        <v>0.0049918033182621</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.009688698686659336</v>
+        <v>0.008918138220906258</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.007661981508135796</v>
+        <v>0.005697857122868299</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.00202770484611392</v>
+        <v>0.004977758042514324</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.01798196136951447</v>
+        <v>0.001224922365508974</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.00474886829033494</v>
+        <v>0.0004059230559505522</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.02349936403334141</v>
+        <v>0.006152019836008549</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.001611312385648489</v>
+        <v>0.005890280939638615</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.005832006223499775</v>
+        <v>0.002246424555778503</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.005446895025670528</v>
+        <v>0.01241466589272022</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.01098695211112499</v>
+        <v>0.005827862303704023</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.0008679605089128017</v>
+        <v>0.03412847593426704</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.005361755378544331</v>
+        <v>0.005082889460027218</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.001933251041918993</v>
+        <v>0.009512289427220821</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.03639259934425354</v>
+        <v>0.0005922000273130834</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.001169588416814804</v>
+        <v>0.004635263234376907</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.008274039253592491</v>
+        <v>0.0101442439481616</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.03141107782721519</v>
+        <v>0.0008448548032902181</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.008996936492621899</v>
+        <v>0.01086179632693529</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.0158104170113802</v>
+        <v>0.001738422550261021</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.01316519360989332</v>
+        <v>0.01003752183169127</v>
       </c>
       <c r="FD4" t="n">
-        <v>7.561827078461647e-05</v>
+        <v>0.005004412028938532</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.01711561158299446</v>
+        <v>0.003438468556851149</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.01940864324569702</v>
+        <v>0.005128429736942053</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.002275485079735518</v>
+        <v>0.002233737148344517</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.01222050655633211</v>
+        <v>0.01190510485321283</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.02490410581231117</v>
+        <v>0.005029884167015553</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.02154055237770081</v>
+        <v>0.01246772520244122</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.0197070948779583</v>
+        <v>0.002798832720145583</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.01445760298520327</v>
+        <v>0.002140427241101861</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.01387475617229939</v>
+        <v>0.0003583270590752363</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.01081604324281216</v>
+        <v>0.007277496624737978</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.02537054941058159</v>
+        <v>0.0089101642370224</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.0105147073045373</v>
+        <v>0.002619882579892874</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.06103083491325378</v>
+        <v>0.002328738104552031</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.03102307394146919</v>
+        <v>0.001343803131021559</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.02882975712418556</v>
+        <v>0.001925792312249541</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.01330202259123325</v>
+        <v>0.02112805843353271</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.001562993391416967</v>
+        <v>0.000214637431781739</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.003710362128913403</v>
+        <v>0.001441718079149723</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.003204299602657557</v>
+        <v>0.008186215534806252</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.01507844962179661</v>
+        <v>0.00546238012611866</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.02461021021008492</v>
+        <v>0.01251313835382462</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.03450679033994675</v>
+        <v>0.004359361249953508</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.00768048083409667</v>
+        <v>0.001067589037120342</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.0293557234108448</v>
+        <v>0.003466981928795576</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.01508514583110809</v>
+        <v>0.005584103986620903</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.03039997071027756</v>
+        <v>0.01044346857815981</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.01668768189847469</v>
+        <v>0.02665182761847973</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.0320090539753437</v>
+        <v>0.0007183307898230851</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.0003894823603332043</v>
+        <v>0.0008664095657877624</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0029492755420506</v>
+        <v>0.003038582857698202</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003746993141248822</v>
+        <v>0.04686404019594193</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003657547058537602</v>
+        <v>0.009695202112197876</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007283525541424751</v>
+        <v>0.0152310561388731</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003271836787462234</v>
+        <v>0.06660546362400055</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001339610898867249</v>
+        <v>0.0189827773720026</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003734002355486155</v>
+        <v>0.0002169199287891388</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001389292068779469</v>
+        <v>0.00284643960185349</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01015783287584782</v>
+        <v>0.005176053382456303</v>
       </c>
       <c r="J5" t="n">
-        <v>6.88331201672554e-05</v>
+        <v>0.009726261720061302</v>
       </c>
       <c r="K5" t="n">
-        <v>0.00219356594607234</v>
+        <v>0.03021386079490185</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00509362667798996</v>
+        <v>0.005162625573575497</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004931831266731024</v>
+        <v>0.009518414735794067</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002878483850508928</v>
+        <v>0.06496220082044601</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0004103712853975594</v>
+        <v>0.02353968098759651</v>
       </c>
       <c r="P5" t="n">
-        <v>0.003726172260940075</v>
+        <v>0.00306990509852767</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0009745195275172591</v>
+        <v>0.009828904643654823</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0120627311989665</v>
+        <v>0.00509892962872982</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001155590987764299</v>
+        <v>0.002189158694818616</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0008463390404358506</v>
+        <v>0.01736818253993988</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0006573122227564454</v>
+        <v>0.004340695682913065</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001242446480318904</v>
+        <v>0.001471699681133032</v>
       </c>
       <c r="W5" t="n">
-        <v>0.004507733508944511</v>
+        <v>0.002098041120916605</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002842987654730678</v>
+        <v>0.01533766090869904</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001533476635813713</v>
+        <v>0.003669981844723225</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0005784540553577244</v>
+        <v>0.001557337120175362</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.002055590273812413</v>
+        <v>0.0009728142758831382</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0015645248349756</v>
+        <v>0.0004398003220558167</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.003709261771291494</v>
+        <v>0.01051013730466366</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.001175037468783557</v>
+        <v>0.005601006560027599</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.001708372496068478</v>
+        <v>0.009520897641777992</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.001460100756958127</v>
+        <v>0.001727866008877754</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.000565719383303076</v>
+        <v>0.0120160486549139</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.001611508894711733</v>
+        <v>0.01165703311562538</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0007469590636901557</v>
+        <v>0.005692373961210251</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.003312040353193879</v>
+        <v>0.001964135328307748</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0002441796532366425</v>
+        <v>0.004845102317631245</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0002143714227713645</v>
+        <v>0.01558137405663729</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.001210228190757334</v>
+        <v>0.005028212442994118</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0004854506114497781</v>
+        <v>0.003436725120991468</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.00129474070854485</v>
+        <v>0.003799137193709612</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.005636482499539852</v>
+        <v>0.005085618235170841</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0003080163733102381</v>
+        <v>0.007077348884195089</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.002284848829731345</v>
+        <v>0.001797402976080775</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0004813882114831358</v>
+        <v>0.004925927147269249</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.002239838475361466</v>
+        <v>0.01435110438615084</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0004750021616928279</v>
+        <v>0.04763522744178772</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.006345679052174091</v>
+        <v>0.004825185518711805</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.001506096683442593</v>
+        <v>0.001376064028590918</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.002688659820705652</v>
+        <v>0.01496786624193192</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.008192873559892178</v>
+        <v>0.01429654471576214</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.0005789436399936676</v>
+        <v>0.00547315925359726</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0001452309661544859</v>
+        <v>0.01029127277433872</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.004438175354152918</v>
+        <v>0.007407912984490395</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.001288347528316081</v>
+        <v>0.004278479609638453</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.00218268483877182</v>
+        <v>0.001190689159557223</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.002318913349881768</v>
+        <v>0.003321158234030008</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.0002651569666340947</v>
+        <v>0.008723359555006027</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.003905848832800984</v>
+        <v>0.04384757578372955</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.003399536944925785</v>
+        <v>0.007237065117806196</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.002494245301932096</v>
+        <v>0.003341556526720524</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.003739019855856895</v>
+        <v>0.01213305909186602</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.002324312459677458</v>
+        <v>0.008330870419740677</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.0003352706553414464</v>
+        <v>0.005032281391322613</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0007867173990234733</v>
+        <v>0.01746287010610104</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.001276957103982568</v>
+        <v>0.003797372803092003</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0003863211313728243</v>
+        <v>0.009816765785217285</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0002803895040415227</v>
+        <v>0.0106058856472373</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.001405897666700184</v>
+        <v>0.01251772325485945</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.001395413186401129</v>
+        <v>0.009060394018888474</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.002486586570739746</v>
+        <v>0.00322028947994113</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.002067463705316186</v>
+        <v>0.00515930587425828</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0008117796387523413</v>
+        <v>0.008794402703642845</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.00255762692540884</v>
+        <v>0.02686038799583912</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0007623941637575626</v>
+        <v>0.01294208317995071</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.002830994315445423</v>
+        <v>0.002588936826214194</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.00197563786059618</v>
+        <v>0.01333361491560936</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.002829896286129951</v>
+        <v>0.007183458656072617</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.002469576895236969</v>
+        <v>0.004823334980756044</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.001442591892555356</v>
+        <v>0.002827598713338375</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.004983405582606792</v>
+        <v>0.002266163937747478</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0004052569856867194</v>
+        <v>0.001627635443583131</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.002039828337728977</v>
+        <v>0.008996790274977684</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.0001795135904103518</v>
+        <v>0.0004694542440120131</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0006820498965680599</v>
+        <v>0.007542697712779045</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0002275468141306192</v>
+        <v>0.008150318637490273</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.0005630970699712634</v>
+        <v>0.005722520407289267</v>
       </c>
       <c r="CJ5" t="n">
-        <v>3.915563138434663e-05</v>
+        <v>0.005199663806706667</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0003455672122072428</v>
+        <v>0.001080479705706239</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.001323135336861014</v>
+        <v>0.001530694193206728</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.001449436182156205</v>
+        <v>0.015213867649436</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0004042056389153004</v>
+        <v>0.006606144830584526</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.001565857324749231</v>
+        <v>0.0004782389150932431</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.0008895788923837245</v>
+        <v>0.004497545305639505</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.002986659994348884</v>
+        <v>0.002278157975524664</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.0002181833115173504</v>
+        <v>0.001483275787904859</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.0004615313373506069</v>
+        <v>0.002796259010210633</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.001904852921143174</v>
+        <v>0.008472676388919353</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.0006319445674307644</v>
+        <v>0.001450941897928715</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0003390138735994697</v>
+        <v>0.001362509443424642</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.001501318882219493</v>
+        <v>0.004914694931358099</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.0003197088371962309</v>
+        <v>0.001653202110901475</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0008067738963291049</v>
+        <v>0.00961539801210165</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.0002898666425608099</v>
+        <v>0.008138579316437244</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0009204047382809222</v>
+        <v>0.007532593794167042</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.000273528101388365</v>
+        <v>0.003951904829591513</v>
       </c>
       <c r="DC5" t="n">
-        <v>7.311993977054954e-05</v>
+        <v>0.001108206459321082</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.001694457605481148</v>
+        <v>0.003234438830986619</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.002547374460846186</v>
+        <v>0.00377157237380743</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.003689232748001814</v>
+        <v>0.02721975184977055</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.005605077836662531</v>
+        <v>0.0007085848483256996</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.001856624381616712</v>
+        <v>0.02117878757417202</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.002497058361768723</v>
+        <v>0.004875010810792446</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.005225309170782566</v>
+        <v>4.983379039913416e-05</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.004601544234901667</v>
+        <v>0.01942458562552929</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.0008698431774973869</v>
+        <v>0.004490416031330824</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.0002443400444462895</v>
+        <v>0.00680973194539547</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.0004511540755629539</v>
+        <v>0.006409989669919014</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0007342279423028231</v>
+        <v>0.005197725258767605</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.003323411103338003</v>
+        <v>0.001195091055706143</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.00166815984994173</v>
+        <v>0.01251305919140577</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.001477895188145339</v>
+        <v>0.001364136463962495</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.001071009784936905</v>
+        <v>0.01741041988134384</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.0006702355458401144</v>
+        <v>0.003233916824683547</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.001908373786136508</v>
+        <v>0.004904864821583033</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.0007807625224813819</v>
+        <v>0.002227886114269495</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.001353310188278556</v>
+        <v>0.003555588657036424</v>
       </c>
       <c r="DX5" t="n">
-        <v>1.522828824818134e-05</v>
+        <v>0.0007798508158884943</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0004554792540147901</v>
+        <v>0.004801364149898291</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.0007083609234541655</v>
+        <v>0.002741729374974966</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0002001366810873151</v>
+        <v>0.01007783506065607</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.000544946058653295</v>
+        <v>0.008878824301064014</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.0009524569031782448</v>
+        <v>0.001028185477480292</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.002446112921461463</v>
+        <v>0.00150391343049705</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.001629661885090172</v>
+        <v>0.0002385121770203114</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.0003272167523391545</v>
+        <v>0.00832816120237112</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.003767904592677951</v>
+        <v>0.0002242875052616</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.0002682255289983004</v>
+        <v>0.0007273980882018805</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.0008763562655076385</v>
+        <v>0.002957978285849094</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0003933777916245162</v>
+        <v>0.009261837229132652</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.0009859622223302722</v>
+        <v>0.000193958287127316</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.001192227704450488</v>
+        <v>0.007145396899431944</v>
       </c>
       <c r="EM5" t="n">
-        <v>8.854649786371738e-05</v>
+        <v>0.001910846913233399</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.002008914016187191</v>
+        <v>0.004648784175515175</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.001728777075186372</v>
+        <v>0.006790450774133205</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.0005596509436145425</v>
+        <v>0.006873070728033781</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.0009325941791757941</v>
+        <v>0.007987708784639835</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.002740504685789347</v>
+        <v>0.005507903173565865</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.002496742643415928</v>
+        <v>5.095615051686764e-05</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.003613861277699471</v>
+        <v>0.009865014813840389</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0005926315207034349</v>
+        <v>0.0009544325293973088</v>
       </c>
       <c r="EV5" t="n">
-        <v>7.644030847586691e-05</v>
+        <v>0.006306687369942665</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.001829822896979749</v>
+        <v>0.002242770278826356</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.0001551695895614102</v>
+        <v>0.001716082799248397</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.001500717480666935</v>
+        <v>0.00365487695671618</v>
       </c>
       <c r="EZ5" t="n">
-        <v>2.141170989489183e-05</v>
+        <v>0.0002175746922148392</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.0004178103699814528</v>
+        <v>0.008225048892199993</v>
       </c>
       <c r="FB5" t="n">
-        <v>7.52267224015668e-05</v>
+        <v>0.008080700412392616</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.0009997665183618665</v>
+        <v>0.007585120387375355</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0004290090291760862</v>
+        <v>0.005076134577393532</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.0004305609036237001</v>
+        <v>0.0003166249953210354</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.002240861766040325</v>
+        <v>0.0001336620189249516</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.0004989051958546042</v>
+        <v>0.008005267009139061</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.001243659411557019</v>
+        <v>0.0116894543170929</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.001265696948394179</v>
+        <v>0.006210146471858025</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.003007036168128252</v>
+        <v>0.004526328295469284</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.001321062794886529</v>
+        <v>0.0004590239841490984</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.001739572850055993</v>
+        <v>0.001672741258516908</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.001625726348720491</v>
+        <v>0.002504065399989486</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.0002820579975377768</v>
+        <v>0.004952107090502977</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.0004098587087355554</v>
+        <v>0.004460280761122704</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.0006854711682535708</v>
+        <v>0.008031044155359268</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.001554521732032299</v>
+        <v>0.008261575363576412</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0005346713587641716</v>
+        <v>0.003401147201657295</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.002113286638632417</v>
+        <v>0.01950204931199551</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.0005082700517959893</v>
+        <v>0.01462504826486111</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.002709806431084871</v>
+        <v>0.0004506593104451895</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.002531619742512703</v>
+        <v>0.004743651486933231</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.0001530442968942225</v>
+        <v>0.001864235382527113</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.002987758023664355</v>
+        <v>0.001439903862774372</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.001728775561787188</v>
+        <v>0.002126933075487614</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.001651448896154761</v>
+        <v>0.009371222928166389</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.001218602643348277</v>
+        <v>0.009809721261262894</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.002712692599743605</v>
+        <v>0.005482817534357309</v>
       </c>
       <c r="GC5" t="n">
-        <v>3.100439789704978e-05</v>
+        <v>0.001234139548614621</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.00173516571521759</v>
+        <v>0.008604235947132111</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.001621849020011723</v>
+        <v>0.009246963076293468</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.004289485514163971</v>
+        <v>0.01408333517611027</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0009844232117757201</v>
+        <v>0.005334367975592613</v>
       </c>
     </row>
     <row r="6">
@@ -3849,1709 +3849,1709 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.005553576163947582</v>
+        <v>0.01127031724900007</v>
       </c>
       <c r="B7" t="n">
-        <v>0.007048625033348799</v>
+        <v>0.1787422895431519</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04068123549222946</v>
+        <v>0.02467609196901321</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002639137441292405</v>
+        <v>0.07186364382505417</v>
       </c>
       <c r="E7" t="n">
-        <v>0.008503206074237823</v>
+        <v>0.2154347151517868</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0007803123444318771</v>
+        <v>0.05721990764141083</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0009801180567592382</v>
+        <v>0.08632788062095642</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008264846168458462</v>
+        <v>0.06717658042907715</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02667488902807236</v>
+        <v>0.03851942718029022</v>
       </c>
       <c r="J7" t="n">
-        <v>0.008811755105853081</v>
+        <v>0.02760263904929161</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01035525277256966</v>
+        <v>0.101853996515274</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04076077789068222</v>
+        <v>0.02742421254515648</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006024365313351154</v>
+        <v>0.02999598532915115</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001999279484152794</v>
+        <v>0.206072673201561</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002655314281582832</v>
+        <v>0.06704975664615631</v>
       </c>
       <c r="P7" t="n">
-        <v>0.002092708833515644</v>
+        <v>0.08922363072633743</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.005492736119776964</v>
+        <v>0.02205640263855457</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02978435903787613</v>
+        <v>0.005744604393839836</v>
       </c>
       <c r="S7" t="n">
-        <v>0.003178323851898313</v>
+        <v>0.008003104478120804</v>
       </c>
       <c r="T7" t="n">
-        <v>0.009711830876767635</v>
+        <v>0.03299202024936676</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003408447140827775</v>
+        <v>0.01343872677534819</v>
       </c>
       <c r="V7" t="n">
-        <v>0.0006102633196860552</v>
+        <v>0.0556640662252903</v>
       </c>
       <c r="W7" t="n">
-        <v>0.004067803267389536</v>
+        <v>0.08840593695640564</v>
       </c>
       <c r="X7" t="n">
-        <v>0.007425657473504543</v>
+        <v>0.02915611304342747</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.000253424106631428</v>
+        <v>0.01823877915740013</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.001027065794914961</v>
+        <v>0.03747865557670593</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.004063648637384176</v>
+        <v>0.0002691838890314102</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.004723061341792345</v>
+        <v>0.01855164021253586</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01063464023172855</v>
+        <v>7.76930246502161e-05</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.001378640998154879</v>
+        <v>0.01072837226092815</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.002616711426526308</v>
+        <v>0.02785316482186317</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.005857926793396473</v>
+        <v>0.0273414421826601</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.00589313916862011</v>
+        <v>0.05449987947940826</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0009697009809315205</v>
+        <v>0.01774570159614086</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.003993555903434753</v>
+        <v>0.00235745171085</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.0142163448035717</v>
+        <v>0.01274852175265551</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.004770636092871428</v>
+        <v>0.02504577487707138</v>
       </c>
       <c r="AL7" t="n">
-        <v>6.778512033633888e-05</v>
+        <v>0.04503576830029488</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.005209980066865683</v>
+        <v>0.01432938035577536</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0005335225141607225</v>
+        <v>0.01014531590044498</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.001013942062854767</v>
+        <v>0.02067449316382408</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.001026910264045</v>
+        <v>0.03784163668751717</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0004109394503757358</v>
+        <v>0.01422374323010445</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.002366987522691488</v>
+        <v>0.01743351668119431</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0007948589045554399</v>
+        <v>0.00232589291408658</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.007806583307683468</v>
+        <v>0.009376462548971176</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.001865558791905642</v>
+        <v>0.1574542969465256</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.01440773159265518</v>
+        <v>0.02519023977220058</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.005055246874690056</v>
+        <v>0.02837657555937767</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.006216651760041714</v>
+        <v>0.1031272858381271</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.00871781911700964</v>
+        <v>0.03674975037574768</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0002715568116400391</v>
+        <v>0.0002502715215086937</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.001560633187182248</v>
+        <v>0.02095657400786877</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.007105518598109484</v>
+        <v>0.004306529648602009</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.002818918088451028</v>
+        <v>0.02262557670474052</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.003244576510041952</v>
+        <v>0.01418567262589931</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.01140639930963516</v>
+        <v>0.01817835494875908</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.007506745867431164</v>
+        <v>0.02800748124718666</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.0116565665230155</v>
+        <v>0.1044201105833054</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.008805040270090103</v>
+        <v>0.002335395431146026</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.001535046612843871</v>
+        <v>0.02912981435656548</v>
       </c>
       <c r="BJ7" t="n">
-        <v>5.063123535364866e-05</v>
+        <v>0.005019166506826878</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.005076123401522636</v>
+        <v>0.006291300989687443</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.001930833095684648</v>
+        <v>0.06317383050918579</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0002312663273187354</v>
+        <v>0.05133440345525742</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.006536771543323994</v>
+        <v>0.01271230075508356</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.0001173866912722588</v>
+        <v>0.0264248289167881</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.004933950491249561</v>
+        <v>0.03967663273215294</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.008109179325401783</v>
+        <v>0.02171656675636768</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.002630168572068214</v>
+        <v>0.002327848225831985</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.009132882580161095</v>
+        <v>0.0223339032381773</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.005878909025341272</v>
+        <v>0.002965816296637058</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.007922367192804813</v>
+        <v>0.03000287339091301</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.006881073582917452</v>
+        <v>0.1192387118935585</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.01387061737477779</v>
+        <v>0.01904324814677238</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.0003300820244476199</v>
+        <v>0.01925413496792316</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.001890934654511511</v>
+        <v>0.0970262810587883</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.004262504167854786</v>
+        <v>0.06434176117181778</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.00219242786988616</v>
+        <v>0.02612817659974098</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.0002157963463105261</v>
+        <v>0.02120778895914555</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.009900231845676899</v>
+        <v>0.007644212804734707</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.0009589570108801126</v>
+        <v>0.02037718147039413</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.003379167756065726</v>
+        <v>0.01542471814900637</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.007488667964935303</v>
+        <v>0.009155945852398872</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.001546099665574729</v>
+        <v>0.01343696657568216</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0007864048820920289</v>
+        <v>0.03410607576370239</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.001063305186107755</v>
+        <v>0.02319182641804218</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.00108783005271107</v>
+        <v>0.003683079499751329</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.0006089047528803349</v>
+        <v>0.00791824609041214</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.003731157863512635</v>
+        <v>0.004548560362309217</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.004965180065482855</v>
+        <v>0.01820738054811954</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0007564395200461149</v>
+        <v>0.003510214388370514</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.003218870609998703</v>
+        <v>0.01574567891657352</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.005275288596749306</v>
+        <v>0.0280720442533493</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0009479341097176075</v>
+        <v>0.04790839925408363</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.001346200122497976</v>
+        <v>0.005856665316969156</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.002809242345392704</v>
+        <v>0.05859385430812836</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.0006634197197854519</v>
+        <v>0.04266851767897606</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.006883903872221708</v>
+        <v>0.0003283629193902016</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.001166522386483848</v>
+        <v>0.02066076919436455</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.00183300708886236</v>
+        <v>0.004793459549546242</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.007113119121640921</v>
+        <v>0.009097275324165821</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.001220702542923391</v>
+        <v>0.01705454848706722</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.003230008762329817</v>
+        <v>0.03434685617685318</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.0003722688416019082</v>
+        <v>0.03704265505075455</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.001039209426380694</v>
+        <v>0.002546069445088506</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.001082332571968436</v>
+        <v>0.006997156888246536</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.004064904525876045</v>
+        <v>0.00637751491740346</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.002724079415202141</v>
+        <v>0.004999780561774969</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.006936150602996349</v>
+        <v>0.02725890465080738</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.00150588306132704</v>
+        <v>0.02306657657027245</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.01148393657058477</v>
+        <v>0.0655171200633049</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.0006033720565028489</v>
+        <v>0.02549093961715698</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.01422955375164747</v>
+        <v>0.03011951223015785</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.002581491833552718</v>
+        <v>0.04842432960867882</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.006447896361351013</v>
+        <v>0.02475930750370026</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.00366443395614624</v>
+        <v>0.008419496938586235</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.00308895343914628</v>
+        <v>0.04713086411356926</v>
       </c>
       <c r="DO7" t="n">
-        <v>8.917937520891428e-05</v>
+        <v>0.01664380915462971</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0003629997372627258</v>
+        <v>0.02735082618892193</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.003639450529590249</v>
+        <v>0.04728222265839577</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0005882075056433678</v>
+        <v>0.03588017821311951</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.002803140319883823</v>
+        <v>0.02721840143203735</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.0003643730888143182</v>
+        <v>0.004519392736256123</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.0008738840697333217</v>
+        <v>0.05640674009919167</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.003922504838556051</v>
+        <v>0.008545604534447193</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.003874924732372165</v>
+        <v>0.00474760914221406</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.001981647685170174</v>
+        <v>0.03423132002353668</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.002170684281736612</v>
+        <v>0.0257920678704977</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.002914329757913947</v>
+        <v>0.001095098908990622</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.002889539580792189</v>
+        <v>0.047503262758255</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.002268035896122456</v>
+        <v>0.001956465886905789</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.000763388816267252</v>
+        <v>0.001916998531669378</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.003130802419036627</v>
+        <v>0.01135152485221624</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.002014968544244766</v>
+        <v>0.01982095837593079</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.0008299681358039379</v>
+        <v>0.002707549370825291</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.004942881874740124</v>
+        <v>0.002658559940755367</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.009877470321953297</v>
+        <v>0.003294095396995544</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.00197590421885252</v>
+        <v>0.01688919588923454</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.00116235064342618</v>
+        <v>0.02590478211641312</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.001284164492972195</v>
+        <v>0.02636745199561119</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.0004919138154946268</v>
+        <v>0.006176648661494255</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.005087573081254959</v>
+        <v>0.01291271764785051</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.001084503019228578</v>
+        <v>0.006257705856114626</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.001107783988118172</v>
+        <v>0.007712122052907944</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.001782308332622051</v>
+        <v>0.0254931915551424</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.0006794595392420888</v>
+        <v>0.006525124423205853</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.003679713467136025</v>
+        <v>0.004157117567956448</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.004336119629442692</v>
+        <v>0.00694056274369359</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.001354185631498694</v>
+        <v>0.122730441391468</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.001229382120072842</v>
+        <v>0.0007598591037094593</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.0005287248059175909</v>
+        <v>0.05971953272819519</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.004397124983370304</v>
+        <v>0.02367251366376877</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.002441932912915945</v>
+        <v>0.02248877659440041</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.0008359555504284799</v>
+        <v>0.002796417800709605</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.007457100786268711</v>
+        <v>0.0119292214512825</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.0003048700164072216</v>
+        <v>0.01905849017202854</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.002394999377429485</v>
+        <v>0.03990821912884712</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.0001914873719215393</v>
+        <v>0.03060966730117798</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.001622523530386388</v>
+        <v>0.005271379835903645</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.002857418498024344</v>
+        <v>0.01217364519834518</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.004349887371063232</v>
+        <v>0.002257937332615256</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.002049134578555822</v>
+        <v>0.004841744899749756</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.006934802047908306</v>
+        <v>0.04961422458291054</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.00946742482483387</v>
+        <v>0.003302952507510781</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.004091788548976183</v>
+        <v>0.03773349896073341</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.003699373453855515</v>
+        <v>0.001771140843629837</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.00440988689661026</v>
+        <v>0.02961659245193005</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.002736011054366827</v>
+        <v>0.0001121798995882273</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.002263154834508896</v>
+        <v>0.009521741420030594</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.006511866580694914</v>
+        <v>0.005247675813734531</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.004084785468876362</v>
+        <v>0.01404793933033943</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.01584438234567642</v>
+        <v>0.002737045753747225</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.007671908475458622</v>
+        <v>0.009729894809424877</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.0001690089702606201</v>
+        <v>0.02749933488667011</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.004248072858899832</v>
+        <v>0.0765831395983696</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.002155664842575788</v>
+        <v>0.0203670933842659</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.0001280626747757196</v>
+        <v>0.03251274675130844</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.006565034855157137</v>
+        <v>0.02199503220617771</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.008562155999243259</v>
+        <v>0.01878836937248707</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0007792194373905659</v>
+        <v>0.002245788229629397</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.003430526237934828</v>
+        <v>0.008604382164776325</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.007398195099085569</v>
+        <v>0.01953079737722874</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.006533283740282059</v>
+        <v>0.02374875731766224</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.008274471387267113</v>
+        <v>0.02249467931687832</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.001280231168493629</v>
+        <v>0.01152848638594151</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.001575392438098788</v>
+        <v>0.06682728230953217</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.002217670669779181</v>
+        <v>0.01321882475167513</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.003884654492139816</v>
+        <v>0.001304516568779945</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01807087659835815</v>
+        <v>0.2806310057640076</v>
       </c>
       <c r="B8" t="n">
-        <v>0.004471675027161837</v>
+        <v>1.054185271263123</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01408278942108154</v>
+        <v>0.001658967230468988</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007419867441058159</v>
+        <v>0.6325929164886475</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0009467215859331191</v>
+        <v>0.04628482088446617</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0046321633271873</v>
+        <v>0.311103492975235</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004980787169188261</v>
+        <v>0.003928326070308685</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002802569651976228</v>
+        <v>0.1130766347050667</v>
       </c>
       <c r="I8" t="n">
-        <v>0.008664250373840332</v>
+        <v>0.09623708575963974</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01691803708672523</v>
+        <v>0.03342194110155106</v>
       </c>
       <c r="K8" t="n">
-        <v>0.004441425204277039</v>
+        <v>0.8444790840148926</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01288375817239285</v>
+        <v>0.132951021194458</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004437588155269623</v>
+        <v>0.6095157265663147</v>
       </c>
       <c r="N8" t="n">
-        <v>0.006751327775418758</v>
+        <v>0.1217722594738007</v>
       </c>
       <c r="O8" t="n">
-        <v>0.004181579686701298</v>
+        <v>0.3092971742153168</v>
       </c>
       <c r="P8" t="n">
-        <v>0.005766879301518202</v>
+        <v>0.03326527029275894</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.003267763881012797</v>
+        <v>0.1981012672185898</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01047910563647747</v>
+        <v>0.07158906012773514</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0005728951655328274</v>
+        <v>0.1052432358264923</v>
       </c>
       <c r="T8" t="n">
-        <v>0.002735488349571824</v>
+        <v>0.008180815726518631</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0007280887803062797</v>
+        <v>0.07454768568277359</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0009422774310223758</v>
+        <v>0.106491930782795</v>
       </c>
       <c r="W8" t="n">
-        <v>0.005865086801350117</v>
+        <v>0.1098922938108444</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0008104389999061823</v>
+        <v>0.005467635579407215</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0008070026524364948</v>
+        <v>0.00309009850025177</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.003767740447074175</v>
+        <v>0.1557289361953735</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0005756526370532811</v>
+        <v>0.09806958585977554</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0005605357000604272</v>
+        <v>0.14834164083004</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0006637184415012598</v>
+        <v>0.006098206155002117</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.001557873329147696</v>
+        <v>0.1328849792480469</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.003715618047863245</v>
+        <v>0.1654810607433319</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.001467123744077981</v>
+        <v>0.03893948346376419</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.00112181412987411</v>
+        <v>0.06131762266159058</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.002938864286988974</v>
+        <v>0.05797674134373665</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0027599330060184</v>
+        <v>0.03900321573019028</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.0009597824537195265</v>
+        <v>0.1310807764530182</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.004081973806023598</v>
+        <v>0.1308047920465469</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.004544379655271769</v>
+        <v>0.1543972492218018</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.003333241678774357</v>
+        <v>0.06337110698223114</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.003966292832046747</v>
+        <v>0.06832906603813171</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.003209135495126247</v>
+        <v>0.06183072179555893</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.002431587548926473</v>
+        <v>0.07983100414276123</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.000127361505292356</v>
+        <v>0.005553901195526123</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.00118164299055934</v>
+        <v>0.1472046077251434</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.002081314101815224</v>
+        <v>0.1073863655328751</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.009752769954502583</v>
+        <v>0.2706451714038849</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.004294910468161106</v>
+        <v>0.6207570433616638</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.008592797443270683</v>
+        <v>0.05355852469801903</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0009804266737774014</v>
+        <v>0.1579210162162781</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.001598315895535052</v>
+        <v>0.06725864112377167</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.001782247680239379</v>
+        <v>0.06108016893267632</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.004307664465159178</v>
+        <v>0.1391007900238037</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.009017396718263626</v>
+        <v>0.09772905707359314</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.005601300392299891</v>
+        <v>0.1575780510902405</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.004021829459816217</v>
+        <v>0.05778917670249939</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.004754407331347466</v>
+        <v>0.3139473497867584</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.003997368738055229</v>
+        <v>0.1051641032099724</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0007554093608632684</v>
+        <v>0.2360549718141556</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.000722076278179884</v>
+        <v>0.1810623854398727</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.00228443369269371</v>
+        <v>0.2328098118305206</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.004463543184101582</v>
+        <v>0.0983479768037796</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.008586769923567772</v>
+        <v>0.153347983956337</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.001135135069489479</v>
+        <v>0.1650329381227493</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.002083515981212258</v>
+        <v>0.04086854681372643</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0003566999221220613</v>
+        <v>0.0848756730556488</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.003010992892086506</v>
+        <v>0.122295044362545</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.001569304382428527</v>
+        <v>0.2368311434984207</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.005695006810128689</v>
+        <v>0.01264351420104504</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.002649955451488495</v>
+        <v>0.1292901635169983</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.0004542975802905858</v>
+        <v>0.007342662662267685</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.0007443494396284223</v>
+        <v>0.06162088364362717</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.0007344495970755816</v>
+        <v>0.07118403166532516</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.007574973162263632</v>
+        <v>0.2498947232961655</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.002347103785723448</v>
+        <v>0.3592205345630646</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.002736270660534501</v>
+        <v>0.05480789765715599</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.005428696051239967</v>
+        <v>0.1192893385887146</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.003307107370346785</v>
+        <v>0.08917535841464996</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.004893919453024864</v>
+        <v>0.1216632053256035</v>
       </c>
       <c r="CA8" t="n">
-        <v>3.281369572505355e-05</v>
+        <v>0.02286476641893387</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.005665100179612637</v>
+        <v>0.06516309827566147</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.00118570844642818</v>
+        <v>0.1826222985982895</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.003824570449069142</v>
+        <v>0.002222560346126556</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.003787396941334009</v>
+        <v>0.1557682454586029</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.00253679696470499</v>
+        <v>0.06141890212893486</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.002282281406223774</v>
+        <v>0.1312664747238159</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.001392570324242115</v>
+        <v>0.03892267122864723</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.0005953019135631621</v>
+        <v>0.04656991735100746</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0005361537914723158</v>
+        <v>0.06102484464645386</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.001643118564970791</v>
+        <v>0.01434393413364887</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.0008351353462785482</v>
+        <v>0.0911162868142128</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.002665589330717921</v>
+        <v>0.0229848176240921</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.001142206834629178</v>
+        <v>0.08886633068323135</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.001166015863418579</v>
+        <v>0.02622223645448685</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.001439009909518063</v>
+        <v>0.0003932565450668335</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.007515333592891693</v>
+        <v>0.03415240347385406</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.001816377742215991</v>
+        <v>0.1431717872619629</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.003637994406744838</v>
+        <v>0.2077407836914062</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.0065564950928092</v>
+        <v>0.2220339477062225</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.00145786430221051</v>
+        <v>0.04239526018500328</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.003940463066101074</v>
+        <v>0.005564425140619278</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.003262165235355496</v>
+        <v>0.1278664320707321</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.002259591594338417</v>
+        <v>0.09585427492856979</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.00144172040745616</v>
+        <v>0.1468691229820251</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.001230249530635774</v>
+        <v>0.02657099440693855</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.000522593327332288</v>
+        <v>0.01380412839353085</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.0002028693415923044</v>
+        <v>0.03929324075579643</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.002589624375104904</v>
+        <v>0.0485968329012394</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.001121206441894174</v>
+        <v>0.05580015853047371</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.003231018781661987</v>
+        <v>0.13599693775177</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.006756271235644817</v>
+        <v>0.3955962955951691</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.001932340790517628</v>
+        <v>0.1504330933094025</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.002518808236345649</v>
+        <v>0.5252704620361328</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.002038214122876525</v>
+        <v>0.08798447996377945</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.005137935746461153</v>
+        <v>0.04634764418005943</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.001860464690253139</v>
+        <v>0.1771342754364014</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.001514700474217534</v>
+        <v>0.07584442943334579</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.001342760864645243</v>
+        <v>0.05205510556697845</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.0004429772379808128</v>
+        <v>0.1417960971593857</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.005276675336062908</v>
+        <v>0.1344388723373413</v>
       </c>
       <c r="DP8" t="n">
-        <v>6.901720189489424e-05</v>
+        <v>0.01877810433506966</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.0004603822599165142</v>
+        <v>0.185905784368515</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.0003251139423809946</v>
+        <v>0.06759850680828094</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.002928020432591438</v>
+        <v>0.04301192611455917</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.002951260190457106</v>
+        <v>0.07207585871219635</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.00209747813642025</v>
+        <v>0.06464098393917084</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.001668145414441824</v>
+        <v>0.07658806443214417</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.000746833102311939</v>
+        <v>0.02803740091621876</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.001153740333393216</v>
+        <v>0.06228619441390038</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.001571885077282786</v>
+        <v>0.02686125785112381</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.001899458700791001</v>
+        <v>0.04006027057766914</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.005625449120998383</v>
+        <v>0.05582375451922417</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.003737559542059898</v>
+        <v>0.05720029026269913</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.0002339173806831241</v>
+        <v>0.0104166641831398</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.003237387398257852</v>
+        <v>0.02090140245854855</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.00123066024389118</v>
+        <v>0.2023616135120392</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.004474391229450703</v>
+        <v>0.02234139107167721</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.004080864600837231</v>
+        <v>0.1256467700004578</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.002812383230775595</v>
+        <v>0.09017544984817505</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.001163794426247478</v>
+        <v>0.07065281271934509</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.003425190225243568</v>
+        <v>0.002083644270896912</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.001687565119937062</v>
+        <v>0.08608001470565796</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.001201943261548877</v>
+        <v>0.03474170342087746</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.001512509654276073</v>
+        <v>0.02829566039144993</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.0001616300287423655</v>
+        <v>0.0386078841984272</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.0002802913077175617</v>
+        <v>0.01671530678868294</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.003204584354534745</v>
+        <v>0.04126692935824394</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.0001862887875176966</v>
+        <v>0.1364777386188507</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.002759762573987246</v>
+        <v>0.1447662711143494</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.004902047105133533</v>
+        <v>0.02498700469732285</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.002451980952173471</v>
+        <v>0.2156047224998474</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.003415729850530624</v>
+        <v>0.1395402848720551</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.002054052427411079</v>
+        <v>0.03372977301478386</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.0002540233545005322</v>
+        <v>0.06490560621023178</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.004059213679283857</v>
+        <v>0.008746776729822159</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.00235095783136785</v>
+        <v>0.1340865343809128</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.002708805724978447</v>
+        <v>0.09909395128488541</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.001554681453853846</v>
+        <v>0.1127460077404976</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.0003285485436208546</v>
+        <v>0.05043343082070351</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.000255218445090577</v>
+        <v>0.03347039967775345</v>
       </c>
       <c r="FD8" t="n">
-        <v>8.199257717933506e-05</v>
+        <v>0.1168385595083237</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.001754326513037086</v>
+        <v>0.04615635797381401</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.000950181798543781</v>
+        <v>0.08378866314888</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.004241196438670158</v>
+        <v>0.08030629903078079</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.00269085168838501</v>
+        <v>0.1033027172088623</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.00315316510386765</v>
+        <v>0.06539007276296616</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.004525399301201105</v>
+        <v>0.08562315255403519</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.002082281745970249</v>
+        <v>0.02187221124768257</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.0009998278692364693</v>
+        <v>0.02560748904943466</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.0003353930951561779</v>
+        <v>0.07855013012886047</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.0004433478461578488</v>
+        <v>0.04336775466799736</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.001981593435630202</v>
+        <v>0.107585147023201</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.001521141501143575</v>
+        <v>0.0449889674782753</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.005412272177636623</v>
+        <v>0.1960238963365555</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.002812252147123218</v>
+        <v>0.2397298067808151</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.005887945648282766</v>
+        <v>0.1060637533664703</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.0006788881146349013</v>
+        <v>0.17283795773983</v>
       </c>
       <c r="FU8" t="n">
-        <v>9.620086348149925e-05</v>
+        <v>0.1631085872650146</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.002810314763337374</v>
+        <v>0.04859438166022301</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.0004953870666213334</v>
+        <v>0.04984759539365768</v>
       </c>
       <c r="FX8" t="n">
-        <v>2.192857209593058e-05</v>
+        <v>0.1122624799609184</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.002062949351966381</v>
+        <v>0.008027330040931702</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.004225066397339106</v>
+        <v>0.09213139861822128</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.002401241566985846</v>
+        <v>0.07439377903938293</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.005489020608365536</v>
+        <v>0.02921602502465248</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.000431983353337273</v>
+        <v>0.1822752207517624</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.001194740762002766</v>
+        <v>0.160160556435585</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.0003959162859246135</v>
+        <v>0.2312882542610168</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.001486259745433927</v>
+        <v>0.08522761613130569</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.001440313179045916</v>
+        <v>0.01380222290754318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>0.1525626331567764</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.1976121217012405</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.09605652838945389</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.03487458825111389</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.02868576347827911</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.09943510591983795</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04201488941907883</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.0406678095459938</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.0148586044088006</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.123519629240036</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.1511947214603424</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.09148611128330231</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.01430686935782433</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.02240842767059803</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.05249100923538208</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.004423894919455051</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.02800711244344711</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.02176757901906967</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.04662183672189713</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.03294704109430313</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.01147111877799034</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.03060682117938995</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>0.1131426021456718</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>0.03169947117567062</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>0.03623010590672493</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>0.02902326360344887</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>0.008626761846244335</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>0.009553888812661171</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>0.007766646333038807</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>0.02365963906049728</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.02445395663380623</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>0.02302108518779278</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.01961847208440304</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>0.004995652008801699</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>0.006402391940355301</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>0.01372268982231617</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>0.01023345999419689</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.04583348333835602</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>0.009733045473694801</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>0.03262325376272202</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>0.04566163942217827</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>0.05116154626011848</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>0.01923537626862526</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>0.00866331160068512</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>5.753710865974426e-06</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>0.02409656345844269</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>0.04545172303915024</v>
       </c>
       <c r="AV9" t="n">
-        <v>0</v>
+        <v>0.003216550219804049</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>0.0460473969578743</v>
       </c>
       <c r="AX9" t="n">
-        <v>0</v>
+        <v>0.06186451017856598</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>0.1444979310035706</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>0.01970991678535938</v>
       </c>
       <c r="BA9" t="n">
-        <v>0</v>
+        <v>0.02850445546209812</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>0.0180845782160759</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>0.04622753709554672</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.04996991902589798</v>
       </c>
       <c r="BE9" t="n">
-        <v>0</v>
+        <v>0.009930058382451534</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>0.009181048721075058</v>
       </c>
       <c r="BG9" t="n">
-        <v>0</v>
+        <v>0.0713750422000885</v>
       </c>
       <c r="BH9" t="n">
-        <v>0</v>
+        <v>0.02338412590324879</v>
       </c>
       <c r="BI9" t="n">
-        <v>0</v>
+        <v>0.0126604437828064</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0</v>
+        <v>0.01589241065084934</v>
       </c>
       <c r="BK9" t="n">
-        <v>0</v>
+        <v>0.003098680870607495</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>0.01340938825160265</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.08726511895656586</v>
       </c>
       <c r="BN9" t="n">
-        <v>0</v>
+        <v>0.04390113428235054</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>0.04997935146093369</v>
       </c>
       <c r="BP9" t="n">
-        <v>0</v>
+        <v>0.1066703423857689</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>0.0127964923158288</v>
       </c>
       <c r="BR9" t="n">
-        <v>0</v>
+        <v>0.01645180210471153</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>0.08068440109491348</v>
       </c>
       <c r="BT9" t="n">
-        <v>0</v>
+        <v>0.005056963767856359</v>
       </c>
       <c r="BU9" t="n">
-        <v>0</v>
+        <v>0.0161768663674593</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.03277073055505753</v>
       </c>
       <c r="BW9" t="n">
-        <v>0</v>
+        <v>0.005555727519094944</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>0.03569761291146278</v>
       </c>
       <c r="BY9" t="n">
-        <v>0</v>
+        <v>0.03590252622961998</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>0.06038171797990799</v>
       </c>
       <c r="CA9" t="n">
-        <v>0</v>
+        <v>0.002146807964891195</v>
       </c>
       <c r="CB9" t="n">
-        <v>0</v>
+        <v>0.00297645665705204</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>0.01523171924054623</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>0.02926744520664215</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>0.02969344146549702</v>
       </c>
       <c r="CF9" t="n">
-        <v>0</v>
+        <v>0.04130487516522408</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>0.04447834938764572</v>
       </c>
       <c r="CH9" t="n">
-        <v>0</v>
+        <v>0.005711689591407776</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>0.03767949342727661</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0</v>
+        <v>0.007927808910608292</v>
       </c>
       <c r="CK9" t="n">
-        <v>0</v>
+        <v>0.007564932573586702</v>
       </c>
       <c r="CL9" t="n">
-        <v>0</v>
+        <v>0.001280299387872219</v>
       </c>
       <c r="CM9" t="n">
-        <v>0</v>
+        <v>0.001444971188902855</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>0.03407182171940804</v>
       </c>
       <c r="CO9" t="n">
-        <v>0</v>
+        <v>0.01647092960774899</v>
       </c>
       <c r="CP9" t="n">
-        <v>0</v>
+        <v>0.124410517513752</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0</v>
+        <v>0.08357143402099609</v>
       </c>
       <c r="CR9" t="n">
-        <v>0</v>
+        <v>0.05823551863431931</v>
       </c>
       <c r="CS9" t="n">
-        <v>0</v>
+        <v>0.0596710629761219</v>
       </c>
       <c r="CT9" t="n">
-        <v>0</v>
+        <v>0.03583298996090889</v>
       </c>
       <c r="CU9" t="n">
-        <v>0</v>
+        <v>0.007206885144114494</v>
       </c>
       <c r="CV9" t="n">
-        <v>0</v>
+        <v>0.03732531517744064</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>0.03335418179631233</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>0.03132855892181396</v>
       </c>
       <c r="CY9" t="n">
-        <v>0</v>
+        <v>0.03529985621571541</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0</v>
+        <v>0.009731746278703213</v>
       </c>
       <c r="DA9" t="n">
-        <v>0</v>
+        <v>0.009895220398902893</v>
       </c>
       <c r="DB9" t="n">
-        <v>0</v>
+        <v>0.006716395728290081</v>
       </c>
       <c r="DC9" t="n">
-        <v>0</v>
+        <v>0.006021608132869005</v>
       </c>
       <c r="DD9" t="n">
-        <v>0</v>
+        <v>0.00028227549046278</v>
       </c>
       <c r="DE9" t="n">
-        <v>0</v>
+        <v>0.1145849451422691</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>0.1076350957155228</v>
       </c>
       <c r="DG9" t="n">
-        <v>0</v>
+        <v>0.01001894008368254</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>0.01137293968349695</v>
       </c>
       <c r="DI9" t="n">
-        <v>0</v>
+        <v>0.1452770084142685</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0</v>
+        <v>0.008843312039971352</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>0.07837433367967606</v>
       </c>
       <c r="DL9" t="n">
-        <v>0</v>
+        <v>0.06618393957614899</v>
       </c>
       <c r="DM9" t="n">
-        <v>0</v>
+        <v>0.003124125534668565</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>0.06978753954172134</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>0.03058571182191372</v>
       </c>
       <c r="DP9" t="n">
-        <v>0</v>
+        <v>0.04084122180938721</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>0.0698302835226059</v>
       </c>
       <c r="DR9" t="n">
-        <v>0</v>
+        <v>0.03501283377408981</v>
       </c>
       <c r="DS9" t="n">
-        <v>0</v>
+        <v>0.04809288308024406</v>
       </c>
       <c r="DT9" t="n">
-        <v>0</v>
+        <v>0.0112942224368453</v>
       </c>
       <c r="DU9" t="n">
-        <v>0</v>
+        <v>0.0007779886946082115</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>0.001610899809747934</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>0.01674171909689903</v>
       </c>
       <c r="DX9" t="n">
-        <v>0</v>
+        <v>0.01513175014406443</v>
       </c>
       <c r="DY9" t="n">
-        <v>0</v>
+        <v>0.007235032506287098</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0</v>
+        <v>0.01006827224045992</v>
       </c>
       <c r="EA9" t="n">
-        <v>0</v>
+        <v>0.01051582489162683</v>
       </c>
       <c r="EB9" t="n">
-        <v>0</v>
+        <v>0.01175419799983501</v>
       </c>
       <c r="EC9" t="n">
-        <v>0</v>
+        <v>0.01133732218295336</v>
       </c>
       <c r="ED9" t="n">
-        <v>0</v>
+        <v>0.04495376348495483</v>
       </c>
       <c r="EE9" t="n">
-        <v>0</v>
+        <v>0.02593720145523548</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>0.03444990143179893</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>0.02754423022270203</v>
       </c>
       <c r="EH9" t="n">
-        <v>0</v>
+        <v>0.02159163542091846</v>
       </c>
       <c r="EI9" t="n">
-        <v>0</v>
+        <v>0.002841818146407604</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0</v>
+        <v>0.02765241265296936</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>0.01494487188756466</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>0.03122576326131821</v>
       </c>
       <c r="EM9" t="n">
-        <v>0</v>
+        <v>0.006044531241059303</v>
       </c>
       <c r="EN9" t="n">
-        <v>0</v>
+        <v>0.00622022058814764</v>
       </c>
       <c r="EO9" t="n">
-        <v>0</v>
+        <v>0.04772848635911942</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>0.01169829443097115</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0</v>
+        <v>0.08803808689117432</v>
       </c>
       <c r="ER9" t="n">
-        <v>0</v>
+        <v>0.04413796588778496</v>
       </c>
       <c r="ES9" t="n">
-        <v>0</v>
+        <v>0.03297294676303864</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>0.004035203251987696</v>
       </c>
       <c r="EU9" t="n">
-        <v>0</v>
+        <v>0.01600596867501736</v>
       </c>
       <c r="EV9" t="n">
-        <v>0</v>
+        <v>0.02562186494469643</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>0.01260552369058132</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>0.04408684000372887</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>0.04318910092115402</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0</v>
+        <v>0.03677250817418098</v>
       </c>
       <c r="FA9" t="n">
-        <v>0</v>
+        <v>0.04198786616325378</v>
       </c>
       <c r="FB9" t="n">
-        <v>0</v>
+        <v>0.01205610670149326</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>0.02825626917183399</v>
       </c>
       <c r="FD9" t="n">
-        <v>0</v>
+        <v>0.0006519462913274765</v>
       </c>
       <c r="FE9" t="n">
-        <v>0</v>
+        <v>0.008917786180973053</v>
       </c>
       <c r="FF9" t="n">
-        <v>0</v>
+        <v>0.001955376239493489</v>
       </c>
       <c r="FG9" t="n">
-        <v>0</v>
+        <v>0.001523434882983565</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>0.01554588414728642</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>0.03959255665540695</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0</v>
+        <v>0.003338165581226349</v>
       </c>
       <c r="FK9" t="n">
-        <v>0</v>
+        <v>0.01673906669020653</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>0.003640887327492237</v>
       </c>
       <c r="FM9" t="n">
-        <v>0</v>
+        <v>0.008214570581912994</v>
       </c>
       <c r="FN9" t="n">
-        <v>0</v>
+        <v>0.005869208835065365</v>
       </c>
       <c r="FO9" t="n">
-        <v>0</v>
+        <v>0.006230505649000406</v>
       </c>
       <c r="FP9" t="n">
-        <v>0</v>
+        <v>0.01445755176246166</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>0.03542895242571831</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>0.06531719118356705</v>
       </c>
       <c r="FS9" t="n">
-        <v>0</v>
+        <v>0.003806549124419689</v>
       </c>
       <c r="FT9" t="n">
-        <v>0</v>
+        <v>0.006440849509090185</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>0.03945976495742798</v>
       </c>
       <c r="FV9" t="n">
-        <v>0</v>
+        <v>0.001562054501846433</v>
       </c>
       <c r="FW9" t="n">
-        <v>0</v>
+        <v>0.03595159202814102</v>
       </c>
       <c r="FX9" t="n">
-        <v>0</v>
+        <v>0.01198435761034489</v>
       </c>
       <c r="FY9" t="n">
-        <v>0</v>
+        <v>0.06997360289096832</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>0.0008903658017516136</v>
       </c>
       <c r="GA9" t="n">
-        <v>0</v>
+        <v>0.02819668687880039</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>0.1689209938049316</v>
       </c>
       <c r="GC9" t="n">
-        <v>0</v>
+        <v>0.1903779208660126</v>
       </c>
       <c r="GD9" t="n">
-        <v>0</v>
+        <v>0.05546128377318382</v>
       </c>
       <c r="GE9" t="n">
-        <v>0</v>
+        <v>0.04319527745246887</v>
       </c>
       <c r="GF9" t="n">
-        <v>0</v>
+        <v>0.003115026745945215</v>
       </c>
       <c r="GG9" t="n">
-        <v>0</v>
+        <v>0.0160301998257637</v>
       </c>
     </row>
   </sheetData>
